--- a/Excel-worksheets/Lecture11_Word2Vec.xlsx
+++ b/Excel-worksheets/Lecture11_Word2Vec.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,8 +34,13 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00505050"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -102,6 +107,12 @@
         <bgColor rgb="00CCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F0F8FF"/>
+        <bgColor rgb="00F0F8FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -149,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -617,7 +631,13 @@
     <col width="8" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>[Description] Word2Vec learns word embeddings by predicting context words (Skip-gram) or center word (CBOW).</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -645,7 +665,6 @@
       <c r="U2" s="4" t="n"/>
       <c r="V2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -653,7 +672,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="3" t="inlineStr">
         <is>
@@ -670,7 +688,6 @@
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="5" t="n"/>
     </row>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="6" t="inlineStr">
         <is>
@@ -692,7 +709,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="8" t="inlineStr">
         <is>
@@ -714,8 +730,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
-    <row r="16"/>
     <row r="17">
       <c r="B17" s="9" t="inlineStr">
         <is>
@@ -732,7 +746,6 @@
       <c r="J17" s="4" t="n"/>
       <c r="K17" s="5" t="n"/>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="B19" s="10" t="inlineStr">
         <is>
@@ -807,8 +820,6 @@
         </is>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22"/>
     <row r="23">
       <c r="B23" s="1" t="inlineStr">
         <is>
@@ -825,7 +836,6 @@
       <c r="J23" s="4" t="n"/>
       <c r="K23" s="5" t="n"/>
     </row>
-    <row r="24"/>
     <row r="25">
       <c r="B25" s="2" t="inlineStr">
         <is>
@@ -854,7 +864,6 @@
         </is>
       </c>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="B30" s="9" t="inlineStr">
         <is>
@@ -904,7 +913,6 @@
         </is>
       </c>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="15" t="inlineStr">
         <is>
@@ -920,11 +928,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B2:V2"/>
     <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B23:K23"/>
     <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B2:V2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -960,7 +969,13 @@
     <col width="8" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>[Description] Word embeddings: Dense vector representations where similar words have similar vectors (cosine similarity).</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -986,7 +1001,6 @@
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="16" t="inlineStr">
         <is>
@@ -1004,7 +1018,6 @@
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="5" t="n"/>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -1146,8 +1159,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="17" t="inlineStr">
         <is>
@@ -1165,7 +1176,6 @@
       <c r="K15" s="4" t="n"/>
       <c r="L15" s="5" t="n"/>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
@@ -1307,8 +1317,6 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="24"/>
-    <row r="25"/>
     <row r="26">
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -1331,8 +1339,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:L4"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B15:L15"/>
     <mergeCell ref="B2:T2"/>
   </mergeCells>
@@ -1370,7 +1379,13 @@
     <col width="8" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>[Description] Skip-gram: Given center word, predict surrounding context words. Good for rare words.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="6" t="inlineStr">
         <is>
@@ -1399,7 +1414,6 @@
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="6" t="inlineStr">
         <is>
@@ -1414,7 +1428,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="B7" s="9" t="inlineStr">
         <is>
@@ -1432,7 +1445,6 @@
       <c r="K7" s="4" t="n"/>
       <c r="L7" s="5" t="n"/>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="B9" s="11" t="inlineStr">
         <is>
@@ -1500,7 +1512,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16"/>
     <row r="17">
       <c r="B17" s="16" t="inlineStr">
         <is>
@@ -1518,7 +1529,6 @@
       <c r="K17" s="4" t="n"/>
       <c r="L17" s="5" t="n"/>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="B19" s="12" t="inlineStr">
         <is>
@@ -1556,7 +1566,6 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="B24" s="17" t="inlineStr">
         <is>
@@ -1574,7 +1583,6 @@
       <c r="K24" s="4" t="n"/>
       <c r="L24" s="5" t="n"/>
     </row>
-    <row r="25"/>
     <row r="26">
       <c r="B26" s="2" t="inlineStr">
         <is>
@@ -1582,7 +1590,6 @@
         </is>
       </c>
     </row>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="1" t="inlineStr">
         <is>
@@ -1695,7 +1702,6 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="35"/>
     <row r="36">
       <c r="B36" s="3" t="inlineStr">
         <is>
@@ -1713,7 +1719,6 @@
       <c r="K36" s="4" t="n"/>
       <c r="L36" s="5" t="n"/>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="2" t="inlineStr">
         <is>
@@ -1721,7 +1726,6 @@
         </is>
       </c>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="B40" s="1" t="inlineStr">
         <is>
@@ -1850,7 +1854,6 @@
         <v>0.1991</v>
       </c>
     </row>
-    <row r="47"/>
     <row r="48">
       <c r="B48" s="2" t="inlineStr">
         <is>
@@ -1858,7 +1861,6 @@
         </is>
       </c>
     </row>
-    <row r="49"/>
     <row r="50">
       <c r="B50" s="22" t="inlineStr">
         <is>
@@ -1876,7 +1878,6 @@
       <c r="K50" s="4" t="n"/>
       <c r="L50" s="5" t="n"/>
     </row>
-    <row r="51"/>
     <row r="52">
       <c r="B52" s="2" t="inlineStr">
         <is>
@@ -1905,7 +1906,6 @@
         </is>
       </c>
     </row>
-    <row r="56"/>
     <row r="57">
       <c r="B57" s="22" t="inlineStr">
         <is>
@@ -1914,9 +1914,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="B50:L50"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="B36:L36"/>
@@ -1956,7 +1957,13 @@
     <col width="8" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>[Description] CBOW (Continuous Bag of Words): Given context words, predict center word. Faster training.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="8" t="inlineStr">
         <is>
@@ -1985,7 +1992,6 @@
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="8" t="inlineStr">
         <is>
@@ -2000,7 +2006,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="B7" s="16" t="inlineStr">
         <is>
@@ -2018,7 +2023,6 @@
       <c r="K7" s="4" t="n"/>
       <c r="L7" s="5" t="n"/>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="B9" s="19" t="inlineStr">
         <is>
@@ -2051,7 +2055,6 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11"/>
     <row r="12">
       <c r="B12" s="16" t="inlineStr">
         <is>
@@ -2069,7 +2072,6 @@
       <c r="K12" s="4" t="n"/>
       <c r="L12" s="5" t="n"/>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="12" t="inlineStr">
         <is>
@@ -2122,7 +2124,6 @@
         <v/>
       </c>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="B19" s="17" t="inlineStr">
         <is>
@@ -2140,7 +2141,6 @@
       <c r="K19" s="4" t="n"/>
       <c r="L19" s="5" t="n"/>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="B21" s="1" t="inlineStr">
         <is>
@@ -2218,7 +2218,6 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="B29" s="3" t="inlineStr">
         <is>
@@ -2236,7 +2235,6 @@
       <c r="K29" s="4" t="n"/>
       <c r="L29" s="5" t="n"/>
     </row>
-    <row r="30"/>
     <row r="31">
       <c r="B31" s="1" t="inlineStr">
         <is>
@@ -2309,7 +2307,6 @@
         <v>0.164</v>
       </c>
     </row>
-    <row r="38"/>
     <row r="39">
       <c r="B39" s="2" t="inlineStr">
         <is>
@@ -2325,8 +2322,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:W2"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B29:L29"/>
     <mergeCell ref="B7:L7"/>
@@ -2366,7 +2364,13 @@
     <col width="10" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>[Description] Negative sampling: Efficient approximation of softmax by sampling negative examples instead of full vocabulary.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -2395,7 +2399,6 @@
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -2410,8 +2413,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
     <row r="8">
       <c r="B8" s="17" t="inlineStr">
         <is>
@@ -2429,7 +2430,6 @@
       <c r="K8" s="4" t="n"/>
       <c r="L8" s="5" t="n"/>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -2444,8 +2444,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="B14" s="16" t="inlineStr">
         <is>
@@ -2463,7 +2461,6 @@
       <c r="K14" s="4" t="n"/>
       <c r="L14" s="5" t="n"/>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -2478,7 +2475,6 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="B19" s="26" t="inlineStr">
         <is>
@@ -2500,7 +2496,6 @@
         </is>
       </c>
     </row>
-    <row r="22"/>
     <row r="23">
       <c r="B23" s="22" t="inlineStr">
         <is>
@@ -2522,8 +2517,6 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27"/>
     <row r="28">
       <c r="B28" s="3" t="inlineStr">
         <is>
@@ -2541,7 +2534,6 @@
       <c r="K28" s="4" t="n"/>
       <c r="L28" s="5" t="n"/>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="B30" s="2" t="inlineStr">
         <is>
@@ -2549,7 +2541,6 @@
         </is>
       </c>
     </row>
-    <row r="31"/>
     <row r="32">
       <c r="B32" s="27" t="inlineStr">
         <is>
@@ -2571,8 +2562,6 @@
         </is>
       </c>
     </row>
-    <row r="35"/>
-    <row r="36"/>
     <row r="37">
       <c r="B37" s="1" t="inlineStr">
         <is>
@@ -2590,7 +2579,6 @@
       <c r="K37" s="4" t="n"/>
       <c r="L37" s="5" t="n"/>
     </row>
-    <row r="38"/>
     <row r="39">
       <c r="B39" s="17" t="inlineStr">
         <is>
@@ -2628,8 +2616,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:W2"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B37:L37"/>
     <mergeCell ref="B28:L28"/>
     <mergeCell ref="B14:L14"/>
@@ -2672,7 +2661,13 @@
     <col width="8" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>[Description] Word2Vec backprop: Update embeddings for positive pairs (increase similarity) and negative pairs (decrease).</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -2709,7 +2704,6 @@
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -2724,7 +2718,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="B7" s="17" t="inlineStr">
         <is>
@@ -2750,7 +2743,6 @@
       <c r="S7" s="4" t="n"/>
       <c r="T7" s="5" t="n"/>
     </row>
-    <row r="8"/>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -2758,7 +2750,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
@@ -2877,8 +2868,6 @@
         <v>0.1991</v>
       </c>
     </row>
-    <row r="18"/>
-    <row r="19"/>
     <row r="20">
       <c r="B20" s="17" t="inlineStr">
         <is>
@@ -2904,7 +2893,6 @@
       <c r="S20" s="4" t="n"/>
       <c r="T20" s="5" t="n"/>
     </row>
-    <row r="21"/>
     <row r="22">
       <c r="B22" s="2" t="inlineStr">
         <is>
@@ -2912,7 +2900,6 @@
         </is>
       </c>
     </row>
-    <row r="23"/>
     <row r="24">
       <c r="B24" s="8" t="inlineStr">
         <is>
@@ -2986,7 +2973,6 @@
         <v>0.1829</v>
       </c>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="B30" s="1" t="inlineStr">
         <is>
@@ -3060,7 +3046,6 @@
         <v>-0.096</v>
       </c>
     </row>
-    <row r="35"/>
     <row r="36">
       <c r="B36" s="16" t="inlineStr">
         <is>
@@ -3086,7 +3071,6 @@
       <c r="S36" s="4" t="n"/>
       <c r="T36" s="5" t="n"/>
     </row>
-    <row r="37"/>
     <row r="38">
       <c r="B38" s="2" t="inlineStr">
         <is>
@@ -3101,7 +3085,6 @@
         </is>
       </c>
     </row>
-    <row r="40"/>
     <row r="41">
       <c r="B41" s="6" t="inlineStr">
         <is>
@@ -3175,8 +3158,6 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="46"/>
-    <row r="47"/>
     <row r="48">
       <c r="B48" s="1" t="inlineStr">
         <is>
@@ -3202,7 +3183,6 @@
       <c r="S48" s="4" t="n"/>
       <c r="T48" s="5" t="n"/>
     </row>
-    <row r="49"/>
     <row r="50">
       <c r="B50" s="2" t="inlineStr">
         <is>
@@ -3270,7 +3250,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B20:T20"/>
     <mergeCell ref="B36:T36"/>
     <mergeCell ref="B2:AE2"/>
@@ -3316,7 +3297,13 @@
     <col width="10" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="31" t="inlineStr">
+        <is>
+          <t>[Description] Reference solutions for self-checking your calculations.</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -3342,7 +3329,6 @@
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="5" t="n"/>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="B4" s="6" t="inlineStr">
         <is>
@@ -3350,7 +3336,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
     <row r="6">
       <c r="B6" s="28" t="inlineStr">
         <is>
@@ -3379,7 +3364,6 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="B11" s="8" t="inlineStr">
         <is>
@@ -3387,7 +3371,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
     <row r="13">
       <c r="B13" s="28" t="inlineStr">
         <is>
@@ -3416,7 +3399,6 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
     <row r="18">
       <c r="B18" s="3" t="inlineStr">
         <is>
@@ -3424,7 +3406,6 @@
         </is>
       </c>
     </row>
-    <row r="19"/>
     <row r="20">
       <c r="B20" s="23" t="inlineStr">
         <is>
@@ -3439,7 +3420,6 @@
         </is>
       </c>
     </row>
-    <row r="22"/>
     <row r="23">
       <c r="B23" s="30" t="inlineStr">
         <is>
@@ -3448,7 +3428,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:T2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
